--- a/client/src/ExcelForm/CNTT_PHAN-CONG-KIEM-TRA-HOC-KY-1-2020-2021_final (2).xlsx
+++ b/client/src/ExcelForm/CNTT_PHAN-CONG-KIEM-TRA-HOC-KY-1-2020-2021_final (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\react js\Website-PhanCongCoiThi\client\src\ExcelForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F937977-93F6-49DF-9142-079B11704A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BE569E-EA22-4A71-8057-9F8FE348D352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2502,6 +2502,9 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2528,9 +2531,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2783,10 +2783,10 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="3:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="115" t="s">
+      <c r="C2" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="116"/>
+      <c r="D2" s="117"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -3204,10 +3204,10 @@
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C39" s="117" t="s">
+      <c r="C39" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="116"/>
+      <c r="D39" s="117"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -4248,25 +4248,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
       <c r="E1" s="15"/>
       <c r="F1" s="16"/>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
-      <c r="K1" s="121" t="s">
+      <c r="K1" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
       <c r="P1" s="19"/>
       <c r="Q1" s="20"/>
       <c r="R1" s="20"/>
@@ -4278,25 +4278,25 @@
       <c r="X1" s="20"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
       <c r="E2" s="17"/>
       <c r="F2" s="16"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
-      <c r="K2" s="121" t="s">
+      <c r="K2" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
       <c r="P2" s="19"/>
       <c r="Q2" s="20"/>
       <c r="R2" s="20"/>
@@ -4309,11 +4309,11 @@
     </row>
     <row r="3" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="125"/>
       <c r="E3" s="21"/>
       <c r="F3" s="18"/>
       <c r="G3" s="22"/>
@@ -4347,12 +4347,12 @@
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
-      <c r="L4" s="118" t="s">
+      <c r="L4" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
       <c r="P4" s="19"/>
       <c r="Q4" s="20"/>
       <c r="R4" s="20"/>
@@ -4364,26 +4364,26 @@
       <c r="X4" s="20"/>
     </row>
     <row r="5" spans="1:26" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
       <c r="S5" s="20"/>
       <c r="T5" s="20"/>
       <c r="U5" s="20"/>
@@ -10228,9 +10228,9 @@
   </sheetPr>
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9:I44"/>
+      <selection pane="bottomLeft" activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10381,28 +10381,28 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="125" t="s">
+      <c r="A6" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="116"/>
-      <c r="M6" s="116"/>
-      <c r="N6" s="116"/>
-      <c r="O6" s="116"/>
-      <c r="P6" s="116"/>
-      <c r="Q6" s="116"/>
-      <c r="R6" s="116"/>
-      <c r="S6" s="116"/>
-      <c r="T6" s="116"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="117"/>
+      <c r="P6" s="117"/>
+      <c r="Q6" s="117"/>
+      <c r="R6" s="117"/>
+      <c r="S6" s="117"/>
+      <c r="T6" s="117"/>
     </row>
     <row r="7" spans="1:22" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -10466,7 +10466,7 @@
       <c r="M8" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="N8" s="126" t="s">
+      <c r="N8" s="115" t="s">
         <v>113</v>
       </c>
       <c r="O8" s="66" t="s">
@@ -10475,7 +10475,7 @@
       <c r="P8" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="Q8" s="126" t="s">
+      <c r="Q8" s="115" t="s">
         <v>116</v>
       </c>
       <c r="R8" s="66" t="s">
